--- a/统一支付平台账户申请模版.xlsx
+++ b/统一支付平台账户申请模版.xlsx
@@ -68,19 +68,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wangwu123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangwu@hsyuntai.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院财务</t>
+  </si>
+  <si>
     <t>wangwu</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu@hsyuntai.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院财务</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -531,27 +531,31 @@
         <v>999</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="2">
         <v>123456789</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
       <formula1>"项目经理,对接人员,医院信息科人员,医院财务"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="长度需大于6小于32" sqref="E1:F1048576">
+      <formula1>6</formula1>
+      <formula2>32</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/统一支付平台账户申请模版.xlsx
+++ b/统一支付平台账户申请模版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>项目经理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>wangwu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请用户真实姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望展示菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,13 +165,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -465,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -477,15 +494,16 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,67 +517,219 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>999</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="3">
         <v>123456789</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G2:G11"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="I2:I11"/>
+    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="K2:K11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="F2:F11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2 K12:K1048576">
       <formula1>"项目经理,对接人员,医院信息科人员,医院财务"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="长度需大于6小于32" sqref="E1:F1048576">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="长度需大于6小于32" sqref="F12:F1048576 F1:F2 G1:G2 G12:G1048576">
       <formula1>6</formula1>
       <formula2>32</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+      <formula1>"三方对账,两方对账,实时对账,日报表,单边账查询,商户（HIS）账单,渠道账单,银行回单,支付订单,退款订单"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/统一支付平台账户申请模版.xlsx
+++ b/统一支付平台账户申请模版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>项目经理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,13 @@
   <si>
     <t>期望展示菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单院云医院</t>
   </si>
 </sst>
 </file>
@@ -165,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -177,6 +184,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -482,100 +490,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>999</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>123456789</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -584,12 +599,13 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -598,12 +614,13 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L4" s="3"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -612,12 +629,13 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -626,12 +644,13 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L6" s="3"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -640,12 +659,13 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L7" s="3"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -654,12 +674,13 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L8" s="3"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -668,12 +689,13 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L9" s="3"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -682,12 +704,13 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L10" s="3"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -696,19 +719,21 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="G2:G11"/>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A11"/>
     <mergeCell ref="H2:H11"/>
     <mergeCell ref="I2:I11"/>
     <mergeCell ref="J2:J11"/>
     <mergeCell ref="K2:K11"/>
-    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="L2:L11"/>
+    <mergeCell ref="G2:G11"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="D2:D11"/>
@@ -716,20 +741,23 @@
     <mergeCell ref="F2:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2 K12:K1048576">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L2 L12:L1048576">
       <formula1>"项目经理,对接人员,医院信息科人员,医院财务"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="长度需大于6小于32" sqref="F12:F1048576 F1:F2 G1:G2 G12:G1048576">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="长度需大于6小于32" sqref="G12:G1048576 G1:G2 H1:H2 H12:H1048576">
       <formula1>6</formula1>
       <formula2>32</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"三方对账,两方对账,实时对账,日报表,单边账查询,商户（HIS）账单,渠道账单,银行回单,支付订单,退款订单"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A2 A12:A1048576">
+      <formula1>"单院云医院,京医通,赣州,无锡"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/统一支付平台账户申请模版.xlsx
+++ b/统一支付平台账户申请模版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>项目经理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,13 @@
   </si>
   <si>
     <t>单院云医院</t>
+  </si>
+  <si>
+    <t>环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产</t>
   </si>
 </sst>
 </file>
@@ -144,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -167,24 +174,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -490,274 +543,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="4">
         <v>999</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="4">
         <v>123456789</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="2"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="M2:M11"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="G2:G11"/>
     <mergeCell ref="A2:A11"/>
-    <mergeCell ref="H2:H11"/>
     <mergeCell ref="I2:I11"/>
     <mergeCell ref="J2:J11"/>
     <mergeCell ref="K2:K11"/>
     <mergeCell ref="L2:L11"/>
-    <mergeCell ref="G2:G11"/>
     <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="F2:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L2 L12:L1048576">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M2 M12:M1048576">
       <formula1>"项目经理,对接人员,医院信息科人员,医院财务"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="长度需大于6小于32" sqref="G12:G1048576 G1:G2 H1:H2 H12:H1048576">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="长度需大于6小于32" sqref="H12:H1048576 H1:H2 I1:I2 I12:I1048576">
       <formula1>6</formula1>
       <formula2>32</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
       <formula1>"三方对账,两方对账,实时对账,日报表,单边账查询,商户（HIS）账单,渠道账单,银行回单,支付订单,退款订单"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A2 A12:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A12:A1048576 A1:A2">
       <formula1>"单院云医院,京医通,赣州,无锡"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11">
+      <formula1>"预发,生产"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
